--- a/Results/Calculation/dp-glove.xlsx
+++ b/Results/Calculation/dp-glove.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G4">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H4">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="G5">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="H5">
         <v>0.49</v>
       </c>
       <c r="I5">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
